--- a/biology/Histoire de la zoologie et de la botanique/Gilles_Terral/Gilles_Terral.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gilles_Terral/Gilles_Terral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gilles Terral, né le 26 mars 1943 à Paris et mort le 12 août 1998 à Mantes-la-Jolie[1], est un entomologiste français.
-Il est spécialisé dans les lépidoptères Parnassiinae et Saturniidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gilles Terral, né le 26 mars 1943 à Paris et mort le 12 août 1998 à Mantes-la-Jolie, est un entomologiste français.
+Il est spécialisé dans les lépidoptères Parnassiinae et Saturniidae.
 En tant que spécialiste des Parnassius, il fait une expédition au Ladakh avec Jean-Claude Weiss en Juillet 1983. 
 En tant que spécialiste des Saturnides, il écrit des articles avec Philippe Darge et Claude Lemaire (voir ci-après).
 Il a travaillé à la réalisation d’un livre sur les Saturniidae du monde, qui devait être publié par Sciences Nat, et dont la plupart des séparations de couleurs des photos étaient prêtes pour l’impression.
-Sa collection de Saturniidae (251 boîtes) se trouve désormais au Musée d’Histoire Naturelle de Lyon[3],[4].
+Sa collection de Saturniidae (251 boîtes) se trouve désormais au Musée d’Histoire Naturelle de Lyon,.
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1991. Saturnides éthiopiens inédits, Bulletin de la Société Sciences Nat, 70, en collaboration avec J.-P. Lequeux and Ph. Darge.
 1994. Zur Verbreitung einiger asiatischer Saturniidae, Entomologische Zeitschrift (Essen), 104 (3), pp. 58–59, en collaboration avec U. et L. H. Paukstadt.</t>
@@ -547,14 +561,16 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gonimbrasia cocaulti, 1992 (avec Philippe Darge) [5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gonimbrasia cocaulti, 1992 (avec Philippe Darge) 
 Melanocera dargei, 1991, Bulletin de la Société Sciences Nat, 70, p. 14.
-Melanocera widenti, 1991 (avec Philippe Darge), Bulletin de la Société Sciences Nat, 70, p. 16[6].
-Periphoba attali, 1994 (avec Claude Lemaire), Nachrichten des Entomologischen Vereins Apollo, N.F., 15 (3), p. 397[7],[8].
+Melanocera widenti, 1991 (avec Philippe Darge), Bulletin de la Société Sciences Nat, 70, p. 16.
+Periphoba attali, 1994 (avec Claude Lemaire), Nachrichten des Entomologischen Vereins Apollo, N.F., 15 (3), p. 397,.
 Ubaena lequeuxi, 1988 (avec Philippe Darge).
-Ubaena periculosa, 1988 (avec Philippe Darge)[9].</t>
+Ubaena periculosa, 1988 (avec Philippe Darge).</t>
         </is>
       </c>
     </row>
@@ -582,10 +598,12 @@
           <t>Espèces nommées d'après lui</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bunaeopsis terrali Darge, 1993[10].
-Coprophanaeus terrali Arnaud, Besoiro, 7, p. 2[11],[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bunaeopsis terrali Darge, 1993.
+Coprophanaeus terrali Arnaud, Besoiro, 7, p. 2,.</t>
         </is>
       </c>
     </row>
